--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1256.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1256.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.288628085143789</v>
+        <v>1.106290459632874</v>
       </c>
       <c r="B1">
-        <v>2.01824873145121</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.130465020078379</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9899286967669418</v>
+        <v>1.052650332450867</v>
       </c>
     </row>
   </sheetData>
